--- a/pred_ohlcv/54_21/2020-01-22 OCN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 OCN ohlcv.xlsx
@@ -1380,7 +1380,7 @@
         <v>-1553234.699678349</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>320263163.7705216</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>316203658.2866216</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>316203658.2866216</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>318101380.3509216</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>318061393.0988216</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>317175605.0672216</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>317446716.1213703</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>317446716.1213703</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>317228858.5618703</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 OCN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 OCN ohlcv.xlsx
@@ -1146,7 +1146,7 @@
         <v>-1433283.267478349</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1433283.267478349</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1433283.267478349</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1433283.267478349</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1437457.761378349</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1437457.761378349</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1439545.444078349</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1556757.699678349</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1564212.699678349</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1553234.699678349</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1549561.729178349</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1537380.729178349</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1556075.729178349</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>320263163.7705216</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>316203658.2866216</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>316203658.2866216</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>318200505.2866216</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>318101380.3509216</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>318106398.3509216</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>318117290.3509216</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>318117290.3509216</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>318117290.3509216</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>318117290.3509216</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>318117290.3509216</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>318117290.3509216</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>318117290.3509216</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>318053707.0988216</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>317175605.0672216</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>317325875.0672216</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>317446716.1213703</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>317228858.5618703</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>317107008.5618703</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
